--- a/src/main/resources/doc/进度安排/找靓机网站进度表.xlsx
+++ b/src/main/resources/doc/进度安排/找靓机网站进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>需求文档</t>
   </si>
   <si>
-    <t>邓宁宁，崔文豪，郭志航，孙鹏轩</t>
+    <t>邓宁宁，崔文航，郭志航，孙鹏轩</t>
   </si>
   <si>
     <t>详细设计</t>
@@ -160,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -195,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +211,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -217,15 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,22 +247,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,41 +301,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,16 +317,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,13 +366,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,97 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +779,89 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,99 +880,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,133 +898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,13 +1491,13 @@
   <dimension ref="A1:CU47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.8833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.8796296296296" style="2" customWidth="1"/>
     <col min="3" max="8" width="15.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -1956,7 +1956,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="19.5" spans="1:8">
+    <row r="9" ht="18.15" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
@@ -2218,7 +2218,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
     </row>
-    <row r="26" ht="14.4" customHeight="1" spans="1:8">
+    <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" ht="14.4" customHeight="1" spans="1:8">
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2244,7 +2244,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" ht="19.5" spans="1:8">
+    <row r="28" ht="18.15" spans="1:8">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
@@ -2376,7 +2376,7 @@
       <c r="G35" s="36"/>
       <c r="H35" s="31"/>
     </row>
-    <row r="38" ht="14.4" customHeight="1" spans="1:8">
+    <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" ht="14.4" customHeight="1" spans="1:8">
+    <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -2402,7 +2402,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" ht="19.5" spans="1:8">
+    <row r="40" ht="18.15" spans="1:8">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">

--- a/src/main/resources/doc/进度安排/找靓机网站进度表.xlsx
+++ b/src/main/resources/doc/进度安排/找靓机网站进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>模块名称</t>
   </si>
@@ -110,10 +110,13 @@
     <t>商家模块页面设计</t>
   </si>
   <si>
+    <t>王关霖,孙鹏轩</t>
+  </si>
+  <si>
     <t>用户模块页面设计</t>
   </si>
   <si>
-    <t>活动模块页面设计</t>
+    <t>李慢慢,邓宁宁</t>
   </si>
   <si>
     <t>购物车模块页面设计</t>
@@ -126,6 +129,9 @@
   </si>
   <si>
     <t>商品模块页面设计</t>
+  </si>
+  <si>
+    <t>陶高飞,崔文航</t>
   </si>
   <si>
     <t>开发</t>
@@ -160,8 +166,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
@@ -195,9 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,35 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +224,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -261,56 +246,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,8 +277,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +297,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -372,169 +378,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +785,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,6 +837,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -822,35 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -866,17 +876,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,145 +892,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,16 +1494,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CU47"/>
+  <dimension ref="A1:CU46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.8796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.8833333333333" style="2" customWidth="1"/>
     <col min="3" max="8" width="15.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -1956,7 +1962,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="18.15" spans="1:8">
+    <row r="9" ht="19.5" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
@@ -2108,7 +2114,9 @@
       <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="20">
         <v>43820</v>
       </c>
@@ -2122,10 +2130,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C18" s="24">
         <v>43820</v>
@@ -2139,403 +2147,395 @@
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20">
+      <c r="A19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24">
         <v>43820</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="24">
         <v>43823</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24">
+      <c r="A20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20">
         <v>43820</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="20">
         <v>43823</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20">
+      <c r="A21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="24">
         <v>43820</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="24">
         <v>43823</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24">
+      <c r="A22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="29">
         <v>43820</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="29">
         <v>43823</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29">
-        <v>43820</v>
-      </c>
-      <c r="D23" s="29">
-        <v>43823</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="3" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="25" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" ht="18.15" spans="1:8">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:8">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="20">
+        <v>43824</v>
+      </c>
+      <c r="D28" s="20">
+        <v>43835</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20">
+      <c r="A29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="24">
         <v>43824</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="24">
         <v>43835</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="24">
+      <c r="A30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="20">
         <v>43824</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="20">
         <v>43835</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="24">
+        <v>43824</v>
+      </c>
+      <c r="D31" s="24">
+        <v>43835</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="20">
+        <v>43824</v>
+      </c>
+      <c r="D32" s="20">
+        <v>43835</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="24">
+        <v>43824</v>
+      </c>
+      <c r="D33" s="24">
+        <v>43835</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29">
+        <v>43824</v>
+      </c>
+      <c r="D34" s="29">
+        <v>43835</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="37" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" ht="19.5" spans="1:8">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="20">
+        <v>43836</v>
+      </c>
+      <c r="D40" s="20">
+        <v>43838</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="24">
+        <v>43836</v>
+      </c>
+      <c r="D41" s="24">
+        <v>43838</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="20">
-        <v>43824</v>
-      </c>
-      <c r="D31" s="20">
-        <v>43835</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="24">
-        <v>43824</v>
-      </c>
-      <c r="D32" s="24">
-        <v>43835</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20">
-        <v>43824</v>
-      </c>
-      <c r="D33" s="20">
-        <v>43835</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="27" t="s">
+      <c r="C42" s="20">
+        <v>43836</v>
+      </c>
+      <c r="D42" s="20">
+        <v>43838</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="24">
-        <v>43824</v>
-      </c>
-      <c r="D34" s="24">
-        <v>43835</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="31" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="24">
+        <v>43836</v>
+      </c>
+      <c r="D43" s="24">
+        <v>43838</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="29">
-        <v>43824</v>
-      </c>
-      <c r="D35" s="29">
-        <v>43835</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="20">
+        <v>43836</v>
+      </c>
+      <c r="D44" s="20">
+        <v>43838</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" ht="18.15" spans="1:8">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="20">
+      <c r="B45" s="27"/>
+      <c r="C45" s="24">
         <v>43836</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D45" s="24">
         <v>43838</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="24">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29">
         <v>43836</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D46" s="29">
         <v>43838</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="20">
-        <v>43836</v>
-      </c>
-      <c r="D43" s="20">
-        <v>43838</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="24">
-        <v>43836</v>
-      </c>
-      <c r="D44" s="24">
-        <v>43838</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="20">
-        <v>43836</v>
-      </c>
-      <c r="D45" s="20">
-        <v>43838</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="24">
-        <v>43836</v>
-      </c>
-      <c r="D46" s="24">
-        <v>43838</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="29">
-        <v>43836</v>
-      </c>
-      <c r="D47" s="29">
-        <v>43838</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="31"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="48">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -2554,8 +2554,8 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
@@ -2563,8 +2563,8 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
@@ -2572,19 +2572,18 @@
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="C7:H8"/>
-    <mergeCell ref="C38:H39"/>
-    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C37:H38"/>
+    <mergeCell ref="C25:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/doc/进度安排/找靓机网站进度表.xlsx
+++ b/src/main/resources/doc/进度安排/找靓机网站进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>模块名称</t>
   </si>
@@ -71,10 +71,16 @@
     <t>孙鹏轩,邓宁宁,崔文航</t>
   </si>
   <si>
+    <t>邓宁宁</t>
+  </si>
+  <si>
     <t>商家模块静态原型</t>
   </si>
   <si>
     <t>王关霖</t>
+  </si>
+  <si>
+    <t>崔文航</t>
   </si>
   <si>
     <t>用户模块静态原型</t>
@@ -166,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
@@ -202,21 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,23 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,24 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,16 +251,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +293,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -331,7 +315,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +336,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -372,6 +378,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,163 +468,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,6 +791,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,45 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -892,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,137 +910,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,43 +1098,49 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,7 +1509,7 @@
   <dimension ref="A1:CU46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1523,97 +1535,97 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
-      <c r="BS1" s="37"/>
-      <c r="BT1" s="37"/>
-      <c r="BU1" s="37"/>
-      <c r="BV1" s="37"/>
-      <c r="BW1" s="37"/>
-      <c r="BX1" s="37"/>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="37"/>
-      <c r="CC1" s="37"/>
-      <c r="CD1" s="37"/>
-      <c r="CE1" s="37"/>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="37"/>
-      <c r="CI1" s="37"/>
-      <c r="CJ1" s="37"/>
-      <c r="CK1" s="37"/>
-      <c r="CL1" s="37"/>
-      <c r="CM1" s="37"/>
-      <c r="CN1" s="37"/>
-      <c r="CO1" s="37"/>
-      <c r="CP1" s="37"/>
-      <c r="CQ1" s="37"/>
-      <c r="CR1" s="37"/>
-      <c r="CS1" s="37"/>
-      <c r="CT1" s="37"/>
-      <c r="CU1" s="37"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+      <c r="BM1" s="39"/>
+      <c r="BN1" s="39"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BR1" s="39"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="39"/>
+      <c r="BV1" s="39"/>
+      <c r="BW1" s="39"/>
+      <c r="BX1" s="39"/>
+      <c r="BY1" s="39"/>
+      <c r="BZ1" s="39"/>
+      <c r="CA1" s="39"/>
+      <c r="CB1" s="39"/>
+      <c r="CC1" s="39"/>
+      <c r="CD1" s="39"/>
+      <c r="CE1" s="39"/>
+      <c r="CF1" s="39"/>
+      <c r="CG1" s="39"/>
+      <c r="CH1" s="39"/>
+      <c r="CI1" s="39"/>
+      <c r="CJ1" s="39"/>
+      <c r="CK1" s="39"/>
+      <c r="CL1" s="39"/>
+      <c r="CM1" s="39"/>
+      <c r="CN1" s="39"/>
+      <c r="CO1" s="39"/>
+      <c r="CP1" s="39"/>
+      <c r="CQ1" s="39"/>
+      <c r="CR1" s="39"/>
+      <c r="CS1" s="39"/>
+      <c r="CT1" s="39"/>
+      <c r="CU1" s="39"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:99">
       <c r="A2" s="7"/>
@@ -1624,97 +1636,97 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
-      <c r="CF2" s="37"/>
-      <c r="CG2" s="37"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="37"/>
-      <c r="CJ2" s="37"/>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="37"/>
-      <c r="CN2" s="37"/>
-      <c r="CO2" s="37"/>
-      <c r="CP2" s="37"/>
-      <c r="CQ2" s="37"/>
-      <c r="CR2" s="37"/>
-      <c r="CS2" s="37"/>
-      <c r="CT2" s="37"/>
-      <c r="CU2" s="37"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39"/>
+      <c r="BV2" s="39"/>
+      <c r="BW2" s="39"/>
+      <c r="BX2" s="39"/>
+      <c r="BY2" s="39"/>
+      <c r="BZ2" s="39"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="39"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="39"/>
+      <c r="CE2" s="39"/>
+      <c r="CF2" s="39"/>
+      <c r="CG2" s="39"/>
+      <c r="CH2" s="39"/>
+      <c r="CI2" s="39"/>
+      <c r="CJ2" s="39"/>
+      <c r="CK2" s="39"/>
+      <c r="CL2" s="39"/>
+      <c r="CM2" s="39"/>
+      <c r="CN2" s="39"/>
+      <c r="CO2" s="39"/>
+      <c r="CP2" s="39"/>
+      <c r="CQ2" s="39"/>
+      <c r="CR2" s="39"/>
+      <c r="CS2" s="39"/>
+      <c r="CT2" s="39"/>
+      <c r="CU2" s="39"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:99">
       <c r="A3" s="11"/>
@@ -1733,97 +1745,97 @@
       <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="37"/>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="37"/>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="37"/>
-      <c r="CD3" s="37"/>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="37"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="37"/>
-      <c r="CI3" s="37"/>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37"/>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="37"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39"/>
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="39"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39"/>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39"/>
+      <c r="BR3" s="39"/>
+      <c r="BS3" s="39"/>
+      <c r="BT3" s="39"/>
+      <c r="BU3" s="39"/>
+      <c r="BV3" s="39"/>
+      <c r="BW3" s="39"/>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="39"/>
+      <c r="CA3" s="39"/>
+      <c r="CB3" s="39"/>
+      <c r="CC3" s="39"/>
+      <c r="CD3" s="39"/>
+      <c r="CE3" s="39"/>
+      <c r="CF3" s="39"/>
+      <c r="CG3" s="39"/>
+      <c r="CH3" s="39"/>
+      <c r="CI3" s="39"/>
+      <c r="CJ3" s="39"/>
+      <c r="CK3" s="39"/>
+      <c r="CL3" s="39"/>
+      <c r="CM3" s="39"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="39"/>
+      <c r="CP3" s="39"/>
+      <c r="CQ3" s="39"/>
+      <c r="CR3" s="39"/>
+      <c r="CS3" s="39"/>
+      <c r="CT3" s="39"/>
+      <c r="CU3" s="39"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:99">
       <c r="A4" s="16" t="s">
@@ -1844,97 +1856,97 @@
       <c r="F4" s="19"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38"/>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38"/>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40"/>
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40"/>
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
@@ -1993,17 +2005,21 @@
       <c r="D10" s="20">
         <v>43818</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>43819</v>
+      </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="24">
         <v>43817</v>
@@ -2011,17 +2027,21 @@
       <c r="D11" s="24">
         <v>43819</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25">
+        <v>43822</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="20">
         <v>43817</v>
@@ -2036,10 +2056,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="20">
         <v>43817</v>
@@ -2047,17 +2067,21 @@
       <c r="D13" s="20">
         <v>43819</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="29">
+        <v>43818</v>
+      </c>
       <c r="F13" s="28"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="24">
         <v>43817</v>
@@ -2065,39 +2089,43 @@
       <c r="D14" s="24">
         <v>43819</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="24">
+        <v>43818</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="A15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="30">
         <v>43817</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="30">
         <v>43819</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>43817</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="24">
         <v>43817</v>
@@ -2105,17 +2133,21 @@
       <c r="D16" s="24">
         <v>43819</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="24">
+        <v>43822</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="20">
         <v>43820</v>
@@ -2130,10 +2162,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="24">
         <v>43820</v>
@@ -2148,10 +2180,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="24">
         <v>43820</v>
@@ -2166,10 +2198,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="20">
         <v>43820</v>
@@ -2184,10 +2216,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="24">
         <v>43820</v>
@@ -2195,22 +2227,22 @@
       <c r="D21" s="24">
         <v>43823</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="29" t="s">
-        <v>31</v>
+      <c r="A22" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="29">
+        <v>34</v>
+      </c>
+      <c r="C22" s="30">
         <v>43820</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="30">
         <v>43823</v>
       </c>
       <c r="E22" s="32"/>
@@ -2226,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2264,7 +2296,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="20">
@@ -2273,14 +2305,14 @@
       <c r="D28" s="20">
         <v>43835</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="24">
@@ -2291,15 +2323,15 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="C30" s="20">
         <v>43824</v>
@@ -2314,7 +2346,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="24">
@@ -2325,12 +2357,12 @@
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="20">
@@ -2346,7 +2378,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="24">
@@ -2357,23 +2389,23 @@
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="34"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="31"/>
-      <c r="C34" s="29">
+      <c r="C34" s="30">
         <v>43824</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="30">
         <v>43835</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="36"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="31"/>
     </row>
     <row r="37" ht="14.4" customHeight="1" spans="1:8">
@@ -2384,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2422,7 +2454,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="20">
@@ -2431,14 +2463,14 @@
       <c r="D40" s="20">
         <v>43838</v>
       </c>
-      <c r="E40" s="21"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="24">
@@ -2449,15 +2481,15 @@
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="34"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="C42" s="20">
         <v>43836</v>
@@ -2472,7 +2504,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="24">
@@ -2483,12 +2515,12 @@
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="34"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="20">
@@ -2504,7 +2536,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="24">
@@ -2515,23 +2547,23 @@
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="34"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" s="31"/>
-      <c r="C46" s="29">
+      <c r="C46" s="30">
         <v>43836</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="30">
         <v>43838</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="36"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="31"/>
     </row>
   </sheetData>
